--- a/medicine/Enfance/Roulette_russe_(roman)/Roulette_russe_(roman).xlsx
+++ b/medicine/Enfance/Roulette_russe_(roman)/Roulette_russe_(roman).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Roulette russe (titre original : Russian Roulette)  est le dixième roman de la série Alex Rider écrite par Anthony Horowitz. Il a été publié le 12 septembre 2013 au Royaume-Uni puis le 30 octobre 2013 en France. À l'inverse des précédents ouvrages de cette série qui sont centrés sur le personnage d'Alex Rider, Roulette russe décrit l'enfance de l'assassin Yassen Gregorovitch qui apparaît dans plusieurs tomes de la série. Ce livre a eu pour titre préliminaire Yassen et devait être le huitième tome de la série.
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un tueur à gages international a reçu des ordres. Le nom de ce tueur est Yassen Gregorovich. Sa prochaine cible est un espion de quatorze ans : Alex Rider. Il connaît bien Alex. Ils partagent un secret du passé. Yassen se souvient de ce qui l'a transformé d'un écolier ordinaire en un tueur à gages. Qu'est-ce qui nous fait choisir le mal ? Pourquoi certains choisissent de tuer quand d'autres risquent leur vie pour sauver ? À certains égards, Alex Rider et Yassen Gregorovich sont identiques l'un de l'autre. Pourtant, les chemins sur lesquels ils sont tombés les ont transformés en ennemis mortels. Cette passionnante aventure promet d'être très meurtrière...
 </t>
@@ -543,7 +557,9 @@
           <t>Personnages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Yassen Gregorovich (aussi appelé Cosaque dans le prologue de Jeu de tueur)
 John Rider (aussi appelé Hunter, père d'Alex Rider)
